--- a/data/trans_orig/IPAQ_DICO-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IPAQ_DICO-Habitat-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>93677</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>77334</v>
+        <v>76518</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>112972</v>
+        <v>111644</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.138821477002646</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1146024950919131</v>
+        <v>0.1133938124354532</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1674157546881634</v>
+        <v>0.1654476356275576</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>35</v>
@@ -763,19 +763,19 @@
         <v>33018</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>22510</v>
+        <v>23076</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>45110</v>
+        <v>44856</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0490726947191293</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03345549657237736</v>
+        <v>0.03429590888012644</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06704477348589746</v>
+        <v>0.06666709450966214</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>125</v>
@@ -784,19 +784,19 @@
         <v>126695</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>107258</v>
+        <v>107681</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>148766</v>
+        <v>148903</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09401238433368829</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07958989113024091</v>
+        <v>0.07990357582111228</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1103898005724387</v>
+        <v>0.1104921079562695</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>581123</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>561828</v>
+        <v>563156</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>597466</v>
+        <v>598282</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.861178522997354</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8325842453118365</v>
+        <v>0.8345523643724425</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.885397504908087</v>
+        <v>0.8866061875645468</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>631</v>
@@ -834,19 +834,19 @@
         <v>639821</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>627729</v>
+        <v>627983</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>650329</v>
+        <v>649763</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9509273052808707</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9329552265141025</v>
+        <v>0.9333329054903378</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9665445034276227</v>
+        <v>0.9657040911198737</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1193</v>
@@ -855,19 +855,19 @@
         <v>1220944</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1198873</v>
+        <v>1198736</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1240381</v>
+        <v>1239958</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9059876156663117</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8896101994275611</v>
+        <v>0.8895078920437307</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9204101088697589</v>
+        <v>0.9200964241788878</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>122813</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>102318</v>
+        <v>102873</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>145744</v>
+        <v>145142</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1201190721449967</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1000736499101485</v>
+        <v>0.1006161898184781</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.142546992062701</v>
+        <v>0.1419577776969296</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>47</v>
@@ -980,19 +980,19 @@
         <v>47586</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>36302</v>
+        <v>36355</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>62874</v>
+        <v>63390</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04562764292332711</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03480855961258537</v>
+        <v>0.03485868116790832</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06028655001581409</v>
+        <v>0.06078165367368732</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>158</v>
@@ -1001,19 +1001,19 @@
         <v>170399</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>144080</v>
+        <v>144564</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>197143</v>
+        <v>199658</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.0825039918943304</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.06976085241180516</v>
+        <v>0.06999487948093529</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.09545308831049078</v>
+        <v>0.09667038740942842</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>899618</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>876687</v>
+        <v>877289</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>920113</v>
+        <v>919558</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8798809278550034</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8574530079372987</v>
+        <v>0.8580422223030704</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8999263500898514</v>
+        <v>0.8993838101815219</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>930</v>
@@ -1051,19 +1051,19 @@
         <v>995327</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>980039</v>
+        <v>979523</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1006611</v>
+        <v>1006558</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9543723570766729</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9397134499841858</v>
+        <v>0.9392183463263126</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9651914403874147</v>
+        <v>0.9651413188320916</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1770</v>
@@ -1072,19 +1072,19 @@
         <v>1894945</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1868201</v>
+        <v>1865686</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1921264</v>
+        <v>1920780</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9174960081056696</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9045469116895094</v>
+        <v>0.9033296125905713</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9302391475881948</v>
+        <v>0.9300051205190647</v>
       </c>
     </row>
     <row r="9">
@@ -1176,19 +1176,19 @@
         <v>113872</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>92580</v>
+        <v>95204</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>134644</v>
+        <v>135117</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1499196237465674</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1218881745042749</v>
+        <v>0.1253424745235615</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1772675337361533</v>
+        <v>0.1778897932093306</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -1197,19 +1197,19 @@
         <v>42100</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>30715</v>
+        <v>30731</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>55142</v>
+        <v>56074</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05362985164934885</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03912737754509661</v>
+        <v>0.03914714734527368</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0702440309681986</v>
+        <v>0.07143124702412061</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>146</v>
@@ -1218,19 +1218,19 @@
         <v>155972</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>133678</v>
+        <v>134647</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>181266</v>
+        <v>180836</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1009811780869148</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.08654760407863782</v>
+        <v>0.08717466389599246</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1173571804845258</v>
+        <v>0.1170789939031061</v>
       </c>
     </row>
     <row r="11">
@@ -1247,19 +1247,19 @@
         <v>645680</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>624908</v>
+        <v>624435</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>666972</v>
+        <v>664348</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.8500803762534326</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8227324662638467</v>
+        <v>0.8221102067906696</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8781118254957252</v>
+        <v>0.8746575254764386</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>695</v>
@@ -1268,19 +1268,19 @@
         <v>742911</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>729869</v>
+        <v>728937</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>754296</v>
+        <v>754280</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9463701483506511</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9297559690318015</v>
+        <v>0.9285687529758795</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9608726224549035</v>
+        <v>0.9608528526547263</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1286</v>
@@ -1289,19 +1289,19 @@
         <v>1388591</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1363297</v>
+        <v>1363727</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1410885</v>
+        <v>1409916</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8990188219130851</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8826428195154742</v>
+        <v>0.8829210060968937</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9134523959213622</v>
+        <v>0.9128253361040075</v>
       </c>
     </row>
     <row r="12">
@@ -1393,19 +1393,19 @@
         <v>146173</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>125095</v>
+        <v>124646</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>170087</v>
+        <v>168552</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1559062629228701</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1334253143718421</v>
+        <v>0.1329464354767383</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.181413034281067</v>
+        <v>0.1797755205565004</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>69</v>
@@ -1414,19 +1414,19 @@
         <v>74690</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>59244</v>
+        <v>60000</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>93328</v>
+        <v>95473</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07155705826722453</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.05675939015404793</v>
+        <v>0.05748322596265427</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08941383182833526</v>
+        <v>0.0914685123537797</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>213</v>
@@ -1435,19 +1435,19 @@
         <v>220862</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>193929</v>
+        <v>195467</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>253321</v>
+        <v>253738</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1114708493046089</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.09787753396727941</v>
+        <v>0.09865365342348846</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.127853139171763</v>
+        <v>0.1280636209078103</v>
       </c>
     </row>
     <row r="14">
@@ -1464,19 +1464,19 @@
         <v>791394</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>767480</v>
+        <v>769015</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>812472</v>
+        <v>812921</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8440937370771299</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.818586965718933</v>
+        <v>0.8202244794434995</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.866574685628158</v>
+        <v>0.8670535645232618</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>890</v>
@@ -1485,19 +1485,19 @@
         <v>969089</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>950451</v>
+        <v>948306</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>984535</v>
+        <v>983779</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9284429417327755</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9105861681716655</v>
+        <v>0.9085314876462203</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9432406098459521</v>
+        <v>0.9425167740373457</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1678</v>
@@ -1506,19 +1506,19 @@
         <v>1760484</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1728025</v>
+        <v>1727608</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1787417</v>
+        <v>1785879</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.8885291506953912</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8721468608282361</v>
+        <v>0.8719363790921898</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9021224660327204</v>
+        <v>0.9013463465765115</v>
       </c>
     </row>
     <row r="15">
@@ -1610,19 +1610,19 @@
         <v>476535</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>436527</v>
+        <v>437981</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>518459</v>
+        <v>516767</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1403905067155106</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1286040901304634</v>
+        <v>0.1290324943362736</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1527417490379025</v>
+        <v>0.1522432629283079</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>192</v>
@@ -1631,19 +1631,19 @@
         <v>197393</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>169849</v>
+        <v>173590</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>224760</v>
+        <v>227121</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05568941290022587</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04791853468411063</v>
+        <v>0.04897385118138771</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06341018957301164</v>
+        <v>0.06407620771999326</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>642</v>
@@ -1652,19 +1652,19 @@
         <v>673928</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>626394</v>
+        <v>621450</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>728650</v>
+        <v>724559</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09712328630252978</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09027292835624214</v>
+        <v>0.08956043061694993</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1050095672939261</v>
+        <v>0.1044199304806835</v>
       </c>
     </row>
     <row r="17">
@@ -1681,19 +1681,19 @@
         <v>2917815</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2875891</v>
+        <v>2877583</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2957823</v>
+        <v>2956369</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8596094932844894</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8472582509620975</v>
+        <v>0.8477567370716919</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8713959098695366</v>
+        <v>0.8709675056637259</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3146</v>
@@ -1702,19 +1702,19 @@
         <v>3347149</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3319782</v>
+        <v>3317421</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3374693</v>
+        <v>3370952</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9443105870997741</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9365898104269877</v>
+        <v>0.9359237922800067</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9520814653158893</v>
+        <v>0.951026148818612</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5927</v>
@@ -1723,19 +1723,19 @@
         <v>6264964</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6210242</v>
+        <v>6214333</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6312498</v>
+        <v>6317442</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9028767136974702</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8949904327060738</v>
+        <v>0.8955800695193165</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9097270716437579</v>
+        <v>0.9104395693830497</v>
       </c>
     </row>
     <row r="18">
@@ -2067,19 +2067,19 @@
         <v>175877</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>150822</v>
+        <v>151639</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>200448</v>
+        <v>201733</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2546326433298223</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2183575639611221</v>
+        <v>0.2195408414236183</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2902057596965131</v>
+        <v>0.2920667532097407</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>232</v>
@@ -2088,19 +2088,19 @@
         <v>130538</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>114492</v>
+        <v>112790</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>148664</v>
+        <v>149594</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1778010521920452</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.155945108166746</v>
+        <v>0.1536278379624457</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2024905226355767</v>
+        <v>0.2037564374653255</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>408</v>
@@ -2109,19 +2109,19 @@
         <v>306415</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>277671</v>
+        <v>278367</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>337559</v>
+        <v>337183</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2150448661786983</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1948721514992321</v>
+        <v>0.1953606948608632</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2369022366032076</v>
+        <v>0.2366383003978911</v>
       </c>
     </row>
     <row r="5">
@@ -2138,19 +2138,19 @@
         <v>514833</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>490262</v>
+        <v>488977</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>539888</v>
+        <v>539071</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7453673566701776</v>
+        <v>0.7453673566701777</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7097942403034869</v>
+        <v>0.7079332467902595</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.781642436038878</v>
+        <v>0.7804591585763817</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1009</v>
@@ -2159,19 +2159,19 @@
         <v>603642</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>585516</v>
+        <v>584586</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>619688</v>
+        <v>621390</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8221989478079547</v>
+        <v>0.8221989478079548</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7975094773644232</v>
+        <v>0.7962435625346745</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8440548918332541</v>
+        <v>0.8463721620375543</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1563</v>
@@ -2180,19 +2180,19 @@
         <v>1118474</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1087330</v>
+        <v>1087706</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1147218</v>
+        <v>1146522</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7849551338213019</v>
+        <v>0.7849551338213018</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7630977633967924</v>
+        <v>0.7633616996021091</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8051278485007677</v>
+        <v>0.8046393051391368</v>
       </c>
     </row>
     <row r="6">
@@ -2284,19 +2284,19 @@
         <v>267551</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>233225</v>
+        <v>235518</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>299622</v>
+        <v>299780</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2550738362312725</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2223486825812102</v>
+        <v>0.2245340511674827</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2856486123884493</v>
+        <v>0.2857992355990205</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>269</v>
@@ -2305,19 +2305,19 @@
         <v>179598</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>159333</v>
+        <v>158325</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>203921</v>
+        <v>201282</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1676179192093422</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1487043189247466</v>
+        <v>0.1477636090732019</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1903178071136589</v>
+        <v>0.1878548406146849</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>494</v>
@@ -2326,19 +2326,19 @@
         <v>447150</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>406777</v>
+        <v>404807</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>489833</v>
+        <v>490648</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2108806907566887</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1918404007157542</v>
+        <v>0.190911513260333</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2310108257107797</v>
+        <v>0.2313950108127834</v>
       </c>
     </row>
     <row r="8">
@@ -2355,19 +2355,19 @@
         <v>781366</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>749295</v>
+        <v>749137</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>815692</v>
+        <v>813399</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.7449261637687274</v>
+        <v>0.7449261637687276</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7143513876115508</v>
+        <v>0.7142007644009793</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7776513174187898</v>
+        <v>0.7754659488325173</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1248</v>
@@ -2376,19 +2376,19 @@
         <v>891876</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>867553</v>
+        <v>870192</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>912141</v>
+        <v>913149</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8323820807906578</v>
+        <v>0.8323820807906577</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.809682192886341</v>
+        <v>0.8121451593853152</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8512956810752537</v>
+        <v>0.8522363909267979</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1987</v>
@@ -2397,19 +2397,19 @@
         <v>1673241</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1630558</v>
+        <v>1629743</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1713614</v>
+        <v>1715584</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7891193092433112</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7689891742892202</v>
+        <v>0.7686049891872168</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.808159599284246</v>
+        <v>0.8090884867396673</v>
       </c>
     </row>
     <row r="9">
@@ -2501,19 +2501,19 @@
         <v>229552</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>200574</v>
+        <v>201557</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>259922</v>
+        <v>262129</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2858420041184063</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2497577383597839</v>
+        <v>0.2509819218139346</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3236593811766256</v>
+        <v>0.3264079841482192</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>221</v>
@@ -2522,19 +2522,19 @@
         <v>168871</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>148151</v>
+        <v>148824</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>190171</v>
+        <v>192092</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2079024846714706</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1823943201416587</v>
+        <v>0.1832220155856746</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2341260701415622</v>
+        <v>0.2364916173246031</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>408</v>
@@ -2543,19 +2543,19 @@
         <v>398423</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>363594</v>
+        <v>363442</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>436434</v>
+        <v>437035</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2466506402329698</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2250895150073957</v>
+        <v>0.2249949571403727</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2701823649689397</v>
+        <v>0.2705541590518438</v>
       </c>
     </row>
     <row r="11">
@@ -2572,19 +2572,19 @@
         <v>573521</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>543151</v>
+        <v>540944</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>602499</v>
+        <v>601516</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7141579958815937</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6763406188233746</v>
+        <v>0.6735920158517806</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7502422616402162</v>
+        <v>0.7490180781860654</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>826</v>
@@ -2593,19 +2593,19 @@
         <v>643388</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>622088</v>
+        <v>620167</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>664108</v>
+        <v>663435</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.7920975153285295</v>
+        <v>0.7920975153285292</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7658739298584378</v>
+        <v>0.7635083826753968</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.817605679858342</v>
+        <v>0.8167779844143255</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1315</v>
@@ -2614,19 +2614,19 @@
         <v>1216909</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1178898</v>
+        <v>1178297</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1251738</v>
+        <v>1251890</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7533493597670302</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7298176350310603</v>
+        <v>0.7294458409481555</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7749104849926042</v>
+        <v>0.7750050428596272</v>
       </c>
     </row>
     <row r="12">
@@ -2718,19 +2718,19 @@
         <v>283229</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>251656</v>
+        <v>252156</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>315363</v>
+        <v>316460</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2860715578473661</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2541816417138757</v>
+        <v>0.2546874631324517</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.318528735104835</v>
+        <v>0.3196368317942407</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>243</v>
@@ -2739,19 +2739,19 @@
         <v>177802</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>156343</v>
+        <v>157036</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>201548</v>
+        <v>202063</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1588878033820647</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1397118841291473</v>
+        <v>0.1403305610648669</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1801074323386354</v>
+        <v>0.1805682956098594</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>508</v>
@@ -2760,19 +2760,19 @@
         <v>461031</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>422491</v>
+        <v>422875</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>501154</v>
+        <v>502228</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2185908119939129</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2003177974638872</v>
+        <v>0.200500026240472</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2376145258234336</v>
+        <v>0.2381237660055683</v>
       </c>
     </row>
     <row r="14">
@@ -2789,19 +2789,19 @@
         <v>706833</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>674699</v>
+        <v>673602</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>738406</v>
+        <v>737906</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.713928442152634</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.681471264895165</v>
+        <v>0.6803631682057594</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7458183582861244</v>
+        <v>0.7453125368675485</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1319</v>
@@ -2810,19 +2810,19 @@
         <v>941239</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>917493</v>
+        <v>916978</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>962698</v>
+        <v>962005</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8411121966179355</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8198925676613648</v>
+        <v>0.8194317043901406</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8602881158708527</v>
+        <v>0.8596694389351331</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2060</v>
@@ -2831,19 +2831,19 @@
         <v>1648073</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1607950</v>
+        <v>1606876</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1686613</v>
+        <v>1686229</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7814091880060872</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7623854741765664</v>
+        <v>0.7618762339944317</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7996822025361129</v>
+        <v>0.7994999737595281</v>
       </c>
     </row>
     <row r="15">
@@ -2935,19 +2935,19 @@
         <v>956209</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>893638</v>
+        <v>896300</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1011882</v>
+        <v>1012211</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2706690059288557</v>
+        <v>0.2706690059288558</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2529573915460782</v>
+        <v>0.2537109369915268</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2864280216038383</v>
+        <v>0.2865210698757321</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>965</v>
@@ -2956,19 +2956,19 @@
         <v>656809</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>620830</v>
+        <v>612203</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>702598</v>
+        <v>697856</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.1757604800294488</v>
+        <v>0.1757604800294487</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1661325182115049</v>
+        <v>0.1638240118585944</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1880135284967336</v>
+        <v>0.1867445756792352</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1818</v>
@@ -2977,19 +2977,19 @@
         <v>1613018</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1548330</v>
+        <v>1543421</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1698733</v>
+        <v>1681346</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2218818445557238</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2129835114569181</v>
+        <v>0.2123082676928461</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.23367255932033</v>
+        <v>0.2312808462134314</v>
       </c>
     </row>
     <row r="17">
@@ -3006,19 +3006,19 @@
         <v>2576553</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2520880</v>
+        <v>2520551</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2639124</v>
+        <v>2636462</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7293309940711443</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7135719783961617</v>
+        <v>0.7134789301242678</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7470426084539218</v>
+        <v>0.746289063008473</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4402</v>
@@ -3027,19 +3027,19 @@
         <v>3080145</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3034356</v>
+        <v>3039098</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3116124</v>
+        <v>3124751</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8242395199705512</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8119864715032663</v>
+        <v>0.8132554243207649</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8338674817884951</v>
+        <v>0.8361759881414056</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6925</v>
@@ -3048,19 +3048,19 @@
         <v>5656698</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5570983</v>
+        <v>5588370</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>5721386</v>
+        <v>5726295</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.7781181554442761</v>
+        <v>0.778118155444276</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7663274406796695</v>
+        <v>0.7687191537865681</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7870164885430819</v>
+        <v>0.7876917323071534</v>
       </c>
     </row>
     <row r="18">
